--- a/data/pca/factorExposure/factorExposure_2016-11-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01818494844245881</v>
+        <v>0.01562168886875658</v>
       </c>
       <c r="C2">
-        <v>0.04456273750585011</v>
+        <v>-0.04348614954911159</v>
       </c>
       <c r="D2">
-        <v>0.02136161843338108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0545936808417807</v>
+      </c>
+      <c r="E2">
+        <v>-0.01814605139572373</v>
+      </c>
+      <c r="F2">
+        <v>-0.08900035862151466</v>
+      </c>
+      <c r="G2">
+        <v>-0.03727303274890239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05576120614824271</v>
+        <v>0.03512381169134923</v>
       </c>
       <c r="C3">
-        <v>0.1015502332922544</v>
+        <v>-0.08697767672147104</v>
       </c>
       <c r="D3">
-        <v>0.0281838281340759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09413051272498058</v>
+      </c>
+      <c r="E3">
+        <v>-0.03087793806329598</v>
+      </c>
+      <c r="F3">
+        <v>-0.08855295290575958</v>
+      </c>
+      <c r="G3">
+        <v>0.06730416142172001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06259642229570836</v>
+        <v>0.05832859204144285</v>
       </c>
       <c r="C4">
-        <v>0.06553295668959674</v>
+        <v>-0.06145936489432343</v>
       </c>
       <c r="D4">
-        <v>0.0008247332098220631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05465543115866255</v>
+      </c>
+      <c r="E4">
+        <v>-0.01273707702689773</v>
+      </c>
+      <c r="F4">
+        <v>-0.09545220739229369</v>
+      </c>
+      <c r="G4">
+        <v>0.02446964719150277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02536668190150287</v>
+        <v>0.03532419615843947</v>
       </c>
       <c r="C6">
-        <v>0.05037610040836129</v>
+        <v>-0.03803934477315201</v>
       </c>
       <c r="D6">
-        <v>0.008669971602085491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06416322488897223</v>
+      </c>
+      <c r="E6">
+        <v>-0.01746164952498189</v>
+      </c>
+      <c r="F6">
+        <v>-0.08808461490023212</v>
+      </c>
+      <c r="G6">
+        <v>0.004919119157352441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02191719586484186</v>
+        <v>0.02170110602359153</v>
       </c>
       <c r="C7">
-        <v>0.04530549114448289</v>
+        <v>-0.03757555884540187</v>
       </c>
       <c r="D7">
-        <v>-0.01446300515837527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.02977216536851001</v>
+      </c>
+      <c r="E7">
+        <v>0.0004103610679692308</v>
+      </c>
+      <c r="F7">
+        <v>-0.1170246396490261</v>
+      </c>
+      <c r="G7">
+        <v>-0.01120197972622375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001545691016404875</v>
+        <v>0.006462788947588377</v>
       </c>
       <c r="C8">
-        <v>0.01019894529823024</v>
+        <v>-0.01979101896838681</v>
       </c>
       <c r="D8">
-        <v>0.01428377172822788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03410076118622869</v>
+      </c>
+      <c r="E8">
+        <v>-0.01090899799147861</v>
+      </c>
+      <c r="F8">
+        <v>-0.06933719760538951</v>
+      </c>
+      <c r="G8">
+        <v>0.005206132780662988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02962360690189627</v>
+        <v>0.03667487252972965</v>
       </c>
       <c r="C9">
-        <v>0.04552153835556211</v>
+        <v>-0.04805250520898352</v>
       </c>
       <c r="D9">
-        <v>-0.004922480570175217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03748299041622136</v>
+      </c>
+      <c r="E9">
+        <v>-0.008912152136753148</v>
+      </c>
+      <c r="F9">
+        <v>-0.09907116912292634</v>
+      </c>
+      <c r="G9">
+        <v>0.008247872589102376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08241199009132175</v>
+        <v>0.09428119467514276</v>
       </c>
       <c r="C10">
-        <v>-0.1981130531029388</v>
+        <v>0.1950232126506778</v>
       </c>
       <c r="D10">
-        <v>0.02202297845101961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0115268947122482</v>
+      </c>
+      <c r="E10">
+        <v>-0.0323340191925373</v>
+      </c>
+      <c r="F10">
+        <v>-0.05146535544143944</v>
+      </c>
+      <c r="G10">
+        <v>0.0006321530842694634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0422817599035907</v>
+        <v>0.03780299698239389</v>
       </c>
       <c r="C11">
-        <v>0.05561839352608032</v>
+        <v>-0.05273179719351008</v>
       </c>
       <c r="D11">
-        <v>-0.01189840319592538</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02449644117119967</v>
+      </c>
+      <c r="E11">
+        <v>0.01289978586057937</v>
+      </c>
+      <c r="F11">
+        <v>-0.06809353439519381</v>
+      </c>
+      <c r="G11">
+        <v>0.005196503052743775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03639830613164943</v>
+        <v>0.03751865079943902</v>
       </c>
       <c r="C12">
-        <v>0.04561244715141805</v>
+        <v>-0.04682579559124242</v>
       </c>
       <c r="D12">
-        <v>-0.010058730801535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01874052682087174</v>
+      </c>
+      <c r="E12">
+        <v>0.00394223563047912</v>
+      </c>
+      <c r="F12">
+        <v>-0.06946169761002977</v>
+      </c>
+      <c r="G12">
+        <v>0.001315402139175557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01113302789742603</v>
+        <v>0.01402452214075575</v>
       </c>
       <c r="C13">
-        <v>0.0414903894382529</v>
+        <v>-0.04089905674650865</v>
       </c>
       <c r="D13">
-        <v>0.01624791771004991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06155498752395678</v>
+      </c>
+      <c r="E13">
+        <v>-0.02798680598140592</v>
+      </c>
+      <c r="F13">
+        <v>-0.1330131651794415</v>
+      </c>
+      <c r="G13">
+        <v>0.006972869154269878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00594494702762347</v>
+        <v>0.008635658497548304</v>
       </c>
       <c r="C14">
-        <v>0.03055546971442442</v>
+        <v>-0.02793303840952623</v>
       </c>
       <c r="D14">
-        <v>-0.01343443772599495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02271328758747121</v>
+      </c>
+      <c r="E14">
+        <v>-0.007049895084940604</v>
+      </c>
+      <c r="F14">
+        <v>-0.1052438937868104</v>
+      </c>
+      <c r="G14">
+        <v>-0.0167857701355991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0009703948940376306</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0006549603835969908</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001635717675559669</v>
+      </c>
+      <c r="E15">
+        <v>0.0008568681044724421</v>
+      </c>
+      <c r="F15">
+        <v>-0.001086743731301033</v>
+      </c>
+      <c r="G15">
+        <v>-0.001112103806943562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03542801658774607</v>
+        <v>0.03510370425560176</v>
       </c>
       <c r="C16">
-        <v>0.04082149661745106</v>
+        <v>-0.04531444751841309</v>
       </c>
       <c r="D16">
-        <v>-0.002367916311587648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0228518902375601</v>
+      </c>
+      <c r="E16">
+        <v>-0.002794408681883695</v>
+      </c>
+      <c r="F16">
+        <v>-0.0736813419726816</v>
+      </c>
+      <c r="G16">
+        <v>-0.009659444764411695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03410740730136081</v>
+        <v>0.02081380414507015</v>
       </c>
       <c r="C19">
-        <v>0.05862471011131849</v>
+        <v>-0.04967708446584472</v>
       </c>
       <c r="D19">
-        <v>0.03527942499996144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1007016242110429</v>
+      </c>
+      <c r="E19">
+        <v>-0.03174871284695588</v>
+      </c>
+      <c r="F19">
+        <v>-0.137391930818128</v>
+      </c>
+      <c r="G19">
+        <v>-0.02605453784254512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01381893411545815</v>
+        <v>0.01616684344191423</v>
       </c>
       <c r="C20">
-        <v>0.04458415894537995</v>
+        <v>-0.03873066160080087</v>
       </c>
       <c r="D20">
-        <v>0.02125035072438108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04499440305382437</v>
+      </c>
+      <c r="E20">
+        <v>-0.03419999734924901</v>
+      </c>
+      <c r="F20">
+        <v>-0.1014080547902121</v>
+      </c>
+      <c r="G20">
+        <v>-0.009408366703753383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0079277685915938</v>
+        <v>0.01036561115373619</v>
       </c>
       <c r="C21">
-        <v>0.0395251430126213</v>
+        <v>-0.03989799522655124</v>
       </c>
       <c r="D21">
-        <v>0.02608886734788348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0621609880185125</v>
+      </c>
+      <c r="E21">
+        <v>-0.02906269412131447</v>
+      </c>
+      <c r="F21">
+        <v>-0.1500124582781757</v>
+      </c>
+      <c r="G21">
+        <v>-0.007236345011136828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.00436162656893379</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01475003442269586</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02511816231094045</v>
+      </c>
+      <c r="E22">
+        <v>-0.001616731136790832</v>
+      </c>
+      <c r="F22">
+        <v>-0.02023627332458981</v>
+      </c>
+      <c r="G22">
+        <v>0.03328706475030361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004393505104988429</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01468576136742505</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02489166626280927</v>
+      </c>
+      <c r="E23">
+        <v>-0.001908183476155614</v>
+      </c>
+      <c r="F23">
+        <v>-0.01994961468327078</v>
+      </c>
+      <c r="G23">
+        <v>0.03334833816726421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02948993169645099</v>
+        <v>0.03206510296438874</v>
       </c>
       <c r="C24">
-        <v>0.04736538087374431</v>
+        <v>-0.05146288949344147</v>
       </c>
       <c r="D24">
-        <v>-0.01193174568975288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02069106438563116</v>
+      </c>
+      <c r="E24">
+        <v>0.004944863434388924</v>
+      </c>
+      <c r="F24">
+        <v>-0.0768802131096982</v>
+      </c>
+      <c r="G24">
+        <v>-0.003108915463023702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04756803301728208</v>
+        <v>0.04389033446078879</v>
       </c>
       <c r="C25">
-        <v>0.05513826181504099</v>
+        <v>-0.05641324201685154</v>
       </c>
       <c r="D25">
-        <v>-0.02235612572744949</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01569725947078291</v>
+      </c>
+      <c r="E25">
+        <v>0.005442408702355639</v>
+      </c>
+      <c r="F25">
+        <v>-0.08465489526375969</v>
+      </c>
+      <c r="G25">
+        <v>0.01239276150384398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009791244881112432</v>
+        <v>0.01545685546121374</v>
       </c>
       <c r="C26">
-        <v>0.0124313381121587</v>
+        <v>-0.01310404444306132</v>
       </c>
       <c r="D26">
-        <v>-0.001081577744860077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01709163659496646</v>
+      </c>
+      <c r="E26">
+        <v>-0.009054176714681382</v>
+      </c>
+      <c r="F26">
+        <v>-0.08170808763584339</v>
+      </c>
+      <c r="G26">
+        <v>-0.02210039579221675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09657288788486526</v>
+        <v>0.1271998632227094</v>
       </c>
       <c r="C28">
-        <v>-0.2282552767531793</v>
+        <v>0.2467137246869467</v>
       </c>
       <c r="D28">
-        <v>0.0136303170043283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.00677561054249274</v>
+      </c>
+      <c r="E28">
+        <v>-0.03687551299333173</v>
+      </c>
+      <c r="F28">
+        <v>-0.06300343871330345</v>
+      </c>
+      <c r="G28">
+        <v>0.006740572656046112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01118341834083986</v>
+        <v>0.009070058620694522</v>
       </c>
       <c r="C29">
-        <v>0.02215916046306297</v>
+        <v>-0.02278288463204013</v>
       </c>
       <c r="D29">
-        <v>-0.01092621924580328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01372528850122496</v>
+      </c>
+      <c r="E29">
+        <v>-0.0114401745880473</v>
+      </c>
+      <c r="F29">
+        <v>-0.09957989596798798</v>
+      </c>
+      <c r="G29">
+        <v>-0.003046784713419377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04147292968601447</v>
+        <v>0.03962096056036121</v>
       </c>
       <c r="C30">
-        <v>0.07242373630413941</v>
+        <v>-0.06512851177589477</v>
       </c>
       <c r="D30">
-        <v>-0.001902437642926666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09113410536057188</v>
+      </c>
+      <c r="E30">
+        <v>0.01377012304302854</v>
+      </c>
+      <c r="F30">
+        <v>-0.1086031750331533</v>
+      </c>
+      <c r="G30">
+        <v>-0.0301050394498668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04333047895178252</v>
+        <v>0.05892236593976792</v>
       </c>
       <c r="C31">
-        <v>0.03048554597581345</v>
+        <v>-0.04485397850814289</v>
       </c>
       <c r="D31">
-        <v>-0.01036936367718269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004434555210663217</v>
+      </c>
+      <c r="E31">
+        <v>-0.03523809293060799</v>
+      </c>
+      <c r="F31">
+        <v>-0.09451539716093764</v>
+      </c>
+      <c r="G31">
+        <v>0.0266517091045343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00744267386950697</v>
+        <v>0.005291473100029779</v>
       </c>
       <c r="C32">
-        <v>0.03479691925218906</v>
+        <v>-0.02750972996294432</v>
       </c>
       <c r="D32">
-        <v>0.009149437339987496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04427611067220912</v>
+      </c>
+      <c r="E32">
+        <v>0.004169924287304471</v>
+      </c>
+      <c r="F32">
+        <v>-0.07893360236375994</v>
+      </c>
+      <c r="G32">
+        <v>-0.01195843144716327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03146266300606478</v>
+        <v>0.02755088168867421</v>
       </c>
       <c r="C33">
-        <v>0.05643317472767991</v>
+        <v>-0.04843641707243551</v>
       </c>
       <c r="D33">
-        <v>0.004242607630405178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07058798229548267</v>
+      </c>
+      <c r="E33">
+        <v>-0.007980091183985986</v>
+      </c>
+      <c r="F33">
+        <v>-0.1518632075197187</v>
+      </c>
+      <c r="G33">
+        <v>0.004676152313338441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05331822428817366</v>
+        <v>0.04380617021908691</v>
       </c>
       <c r="C34">
-        <v>0.05390757591035835</v>
+        <v>-0.06212020014795391</v>
       </c>
       <c r="D34">
-        <v>-0.01779988784874488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02274497469065135</v>
+      </c>
+      <c r="E34">
+        <v>0.01880911767701162</v>
+      </c>
+      <c r="F34">
+        <v>-0.07768656984188285</v>
+      </c>
+      <c r="G34">
+        <v>-9.110844988635354e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01028951376608832</v>
+        <v>0.01589480091333774</v>
       </c>
       <c r="C36">
-        <v>0.008153199564924819</v>
+        <v>-0.008416874408881218</v>
       </c>
       <c r="D36">
-        <v>-0.006375272417373665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02012054514079764</v>
+      </c>
+      <c r="E36">
+        <v>-0.01375108294871848</v>
+      </c>
+      <c r="F36">
+        <v>-0.09570908561632617</v>
+      </c>
+      <c r="G36">
+        <v>-0.0003339548348074551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03821474059475738</v>
+        <v>0.03074807919742934</v>
       </c>
       <c r="C38">
-        <v>0.02152518056566047</v>
+        <v>-0.02209429119539066</v>
       </c>
       <c r="D38">
-        <v>-0.009022473360798759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02000339468726553</v>
+      </c>
+      <c r="E38">
+        <v>-0.01579004664650439</v>
+      </c>
+      <c r="F38">
+        <v>-0.08681813596711492</v>
+      </c>
+      <c r="G38">
+        <v>0.00149093327678151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03858849278888882</v>
+        <v>0.03810880572691817</v>
       </c>
       <c r="C39">
-        <v>0.08341968798570421</v>
+        <v>-0.07428080243200114</v>
       </c>
       <c r="D39">
-        <v>0.004901795214859309</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04691132208638383</v>
+      </c>
+      <c r="E39">
+        <v>0.01316792922125564</v>
+      </c>
+      <c r="F39">
+        <v>-0.08442673233578035</v>
+      </c>
+      <c r="G39">
+        <v>-0.03477869829238023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01775473552082745</v>
+        <v>0.01809242279086271</v>
       </c>
       <c r="C40">
-        <v>0.02717321027508363</v>
+        <v>-0.03826941899099949</v>
       </c>
       <c r="D40">
-        <v>0.01832486211921522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03443522565956098</v>
+      </c>
+      <c r="E40">
+        <v>-0.03218471866058959</v>
+      </c>
+      <c r="F40">
+        <v>-0.1175633678407459</v>
+      </c>
+      <c r="G40">
+        <v>0.03864058747257625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01159899938604042</v>
+        <v>0.01917418160394316</v>
       </c>
       <c r="C41">
-        <v>-0.0001488208737530636</v>
+        <v>0.0001335209089804063</v>
       </c>
       <c r="D41">
-        <v>-0.007513533982719311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01588490245905031</v>
+      </c>
+      <c r="E41">
+        <v>-0.01752609589093366</v>
+      </c>
+      <c r="F41">
+        <v>-0.08673835887056008</v>
+      </c>
+      <c r="G41">
+        <v>-0.006898414936087018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.002721443963941775</v>
+        <v>0.002416420745267276</v>
       </c>
       <c r="C42">
-        <v>0.05057898518374573</v>
+        <v>-0.0269827506403801</v>
       </c>
       <c r="D42">
-        <v>0.02096329232340895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001154088068667073</v>
+      </c>
+      <c r="E42">
+        <v>-0.02219078099910625</v>
+      </c>
+      <c r="F42">
+        <v>0.03220240501640314</v>
+      </c>
+      <c r="G42">
+        <v>-0.01213409617489752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03442608294127296</v>
+        <v>0.03321400340432767</v>
       </c>
       <c r="C43">
-        <v>0.01215064105503685</v>
+        <v>-0.01384954657378373</v>
       </c>
       <c r="D43">
-        <v>-0.00639815089091682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03465820881847666</v>
+      </c>
+      <c r="E43">
+        <v>-0.01429261631953809</v>
+      </c>
+      <c r="F43">
+        <v>-0.1095780917786831</v>
+      </c>
+      <c r="G43">
+        <v>0.0153015533412639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02215273661587246</v>
+        <v>0.01514074366534523</v>
       </c>
       <c r="C44">
-        <v>0.05513967569112135</v>
+        <v>-0.052704305522994</v>
       </c>
       <c r="D44">
-        <v>0.003835048538648933</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03940066037145463</v>
+      </c>
+      <c r="E44">
+        <v>-0.02366113384969688</v>
+      </c>
+      <c r="F44">
+        <v>-0.1092134412785334</v>
+      </c>
+      <c r="G44">
+        <v>-0.01082225606319063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001156336842664351</v>
+        <v>0.01082212428476263</v>
       </c>
       <c r="C46">
-        <v>0.01407884946711341</v>
+        <v>-0.01869921030585129</v>
       </c>
       <c r="D46">
-        <v>-0.01667656366322478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.006149256761403139</v>
+      </c>
+      <c r="E46">
+        <v>-0.01706850185179103</v>
+      </c>
+      <c r="F46">
+        <v>-0.1092308834095163</v>
+      </c>
+      <c r="G46">
+        <v>-0.009919783543849063</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0785375786794453</v>
+        <v>0.08750879495223048</v>
       </c>
       <c r="C47">
-        <v>0.06781101111207996</v>
+        <v>-0.07286386155704906</v>
       </c>
       <c r="D47">
-        <v>-0.005384858675401681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00991313739294823</v>
+      </c>
+      <c r="E47">
+        <v>-0.04258906167816622</v>
+      </c>
+      <c r="F47">
+        <v>-0.09237801740170934</v>
+      </c>
+      <c r="G47">
+        <v>0.02975046893901986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01790725887030864</v>
+        <v>0.01753163919690186</v>
       </c>
       <c r="C48">
-        <v>0.01112678080361064</v>
+        <v>-0.01553847490328977</v>
       </c>
       <c r="D48">
-        <v>-0.01004624593425865</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01389482298773607</v>
+      </c>
+      <c r="E48">
+        <v>-0.0231602317046057</v>
+      </c>
+      <c r="F48">
+        <v>-0.1068882450270838</v>
+      </c>
+      <c r="G48">
+        <v>-0.00547954305057438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08723606285508803</v>
+        <v>0.07894462352635602</v>
       </c>
       <c r="C50">
-        <v>0.06669990258480547</v>
+        <v>-0.0700361960423798</v>
       </c>
       <c r="D50">
-        <v>-0.01779101591202125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0064939402057963</v>
+      </c>
+      <c r="E50">
+        <v>-0.03992909626113599</v>
+      </c>
+      <c r="F50">
+        <v>-0.09508990984036809</v>
+      </c>
+      <c r="G50">
+        <v>0.05813096832630784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01775866523322106</v>
+        <v>0.01241385448483702</v>
       </c>
       <c r="C51">
-        <v>0.03989779422932493</v>
+        <v>-0.03390347187431944</v>
       </c>
       <c r="D51">
-        <v>-0.008816852642680301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0415286103190388</v>
+      </c>
+      <c r="E51">
+        <v>0.005065275054840383</v>
+      </c>
+      <c r="F51">
+        <v>-0.09887932064977359</v>
+      </c>
+      <c r="G51">
+        <v>-0.02045987754108133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0986269998600736</v>
+        <v>0.09107089918502838</v>
       </c>
       <c r="C53">
-        <v>0.06878283601316439</v>
+        <v>-0.08565726886727973</v>
       </c>
       <c r="D53">
-        <v>-0.02741268577040033</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03139715233902229</v>
+      </c>
+      <c r="E53">
+        <v>-0.049841077777035</v>
+      </c>
+      <c r="F53">
+        <v>-0.100930003730002</v>
+      </c>
+      <c r="G53">
+        <v>0.03884963633979673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03095306778882969</v>
+        <v>0.03200984109404434</v>
       </c>
       <c r="C54">
-        <v>0.005831374075270807</v>
+        <v>-0.02208547301772972</v>
       </c>
       <c r="D54">
-        <v>-0.001172323646321328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02487781875437093</v>
+      </c>
+      <c r="E54">
+        <v>-0.01256073081921684</v>
+      </c>
+      <c r="F54">
+        <v>-0.1068801426372672</v>
+      </c>
+      <c r="G54">
+        <v>-0.003880137678562592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07466542102821551</v>
+        <v>0.08309805427839867</v>
       </c>
       <c r="C55">
-        <v>0.06402943826522582</v>
+        <v>-0.06920731884717163</v>
       </c>
       <c r="D55">
-        <v>-0.02598945820127021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03765271689343674</v>
+      </c>
+      <c r="E55">
+        <v>-0.04663793169975741</v>
+      </c>
+      <c r="F55">
+        <v>-0.06809744138734919</v>
+      </c>
+      <c r="G55">
+        <v>0.03240480943103551</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1514987363908483</v>
+        <v>0.1448487811551963</v>
       </c>
       <c r="C56">
-        <v>0.08966788484781671</v>
+        <v>-0.101509813089649</v>
       </c>
       <c r="D56">
-        <v>-0.02243001118912412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03915354089742337</v>
+      </c>
+      <c r="E56">
+        <v>-0.05286371276652792</v>
+      </c>
+      <c r="F56">
+        <v>-0.0607717039984309</v>
+      </c>
+      <c r="G56">
+        <v>0.04117101160106059</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.004929835697426468</v>
+        <v>0.002004146461909962</v>
       </c>
       <c r="C57">
-        <v>0.008508213538660717</v>
+        <v>-0.004345148366125501</v>
       </c>
       <c r="D57">
-        <v>0.03079922297893269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02758005625344322</v>
+      </c>
+      <c r="E57">
+        <v>-0.002360496485011103</v>
+      </c>
+      <c r="F57">
+        <v>-0.01024609967993557</v>
+      </c>
+      <c r="G57">
+        <v>-0.002765185828502501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06339225517606273</v>
+        <v>0.03786903210801004</v>
       </c>
       <c r="C58">
-        <v>0.07676602384503994</v>
+        <v>-0.0382260204941006</v>
       </c>
       <c r="D58">
-        <v>0.9741303934124383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6765926244670205</v>
+      </c>
+      <c r="E58">
+        <v>-0.6276548848930031</v>
+      </c>
+      <c r="F58">
+        <v>0.3147470316248937</v>
+      </c>
+      <c r="G58">
+        <v>0.03144807589034134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1431214441596986</v>
+        <v>0.1484105210222262</v>
       </c>
       <c r="C59">
-        <v>-0.2209647945539333</v>
+        <v>0.2030001585116391</v>
       </c>
       <c r="D59">
-        <v>0.01205146503729403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02179357977844126</v>
+      </c>
+      <c r="E59">
+        <v>-0.01364090465693453</v>
+      </c>
+      <c r="F59">
+        <v>-0.03677903751929215</v>
+      </c>
+      <c r="G59">
+        <v>-0.02447897679087484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3117838902127321</v>
+        <v>0.2848456542945794</v>
       </c>
       <c r="C60">
-        <v>0.08722356236345608</v>
+        <v>-0.09450499284610613</v>
       </c>
       <c r="D60">
-        <v>-0.01118016830508866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1471962425668403</v>
+      </c>
+      <c r="E60">
+        <v>0.2940359035322184</v>
+      </c>
+      <c r="F60">
+        <v>0.147130844822456</v>
+      </c>
+      <c r="G60">
+        <v>0.06568789756413515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03678024389794082</v>
+        <v>0.0410594399412746</v>
       </c>
       <c r="C61">
-        <v>0.06204475617562313</v>
+        <v>-0.06347750644655765</v>
       </c>
       <c r="D61">
-        <v>0.002620908619737832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03806791059914541</v>
+      </c>
+      <c r="E61">
+        <v>0.002951133684010631</v>
+      </c>
+      <c r="F61">
+        <v>-0.085673512897154</v>
+      </c>
+      <c r="G61">
+        <v>0.0006540870733881035</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01776352194746935</v>
+        <v>0.01688497024686329</v>
       </c>
       <c r="C63">
-        <v>0.02712832524423254</v>
+        <v>-0.02853289283964124</v>
       </c>
       <c r="D63">
-        <v>-0.01714383798461035</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01457373637016064</v>
+      </c>
+      <c r="E63">
+        <v>-0.01375697817175796</v>
+      </c>
+      <c r="F63">
+        <v>-0.09066609229147402</v>
+      </c>
+      <c r="G63">
+        <v>0.01860133983900114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04862974529543968</v>
+        <v>0.05412767853883618</v>
       </c>
       <c r="C64">
-        <v>0.02951384629484195</v>
+        <v>-0.04770174242708287</v>
       </c>
       <c r="D64">
-        <v>-0.01538482290364259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.00847084911954496</v>
+      </c>
+      <c r="E64">
+        <v>0.001784723510383509</v>
+      </c>
+      <c r="F64">
+        <v>-0.0932887083330145</v>
+      </c>
+      <c r="G64">
+        <v>-0.01716736698473088</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08520587631126825</v>
+        <v>0.0686725506979093</v>
       </c>
       <c r="C65">
-        <v>0.06177566090291853</v>
+        <v>-0.04271644082444778</v>
       </c>
       <c r="D65">
-        <v>0.006331941228575931</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07359924931311813</v>
+      </c>
+      <c r="E65">
+        <v>0.006475818986958604</v>
+      </c>
+      <c r="F65">
+        <v>-0.03686626371869484</v>
+      </c>
+      <c r="G65">
+        <v>-0.007489188424513149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06172000117398013</v>
+        <v>0.05164557175132958</v>
       </c>
       <c r="C66">
-        <v>0.1189010465138624</v>
+        <v>-0.09866277271076776</v>
       </c>
       <c r="D66">
-        <v>0.008756510188277016</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07096984039939692</v>
+      </c>
+      <c r="E66">
+        <v>0.01649448266272467</v>
+      </c>
+      <c r="F66">
+        <v>-0.08885436284889633</v>
+      </c>
+      <c r="G66">
+        <v>-0.01587715623922718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06458124755347387</v>
+        <v>0.05323646961782886</v>
       </c>
       <c r="C67">
-        <v>0.02568087488546134</v>
+        <v>-0.02752998375514853</v>
       </c>
       <c r="D67">
-        <v>-0.01551691390840241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005994604628700189</v>
+      </c>
+      <c r="E67">
+        <v>-0.008927177644097024</v>
+      </c>
+      <c r="F67">
+        <v>-0.07107308746487304</v>
+      </c>
+      <c r="G67">
+        <v>0.0073557075352436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1193148407254684</v>
+        <v>0.1495045610026174</v>
       </c>
       <c r="C68">
-        <v>-0.287548330026859</v>
+        <v>0.2677252592609681</v>
       </c>
       <c r="D68">
-        <v>0.02663181262399737</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008577022349232778</v>
+      </c>
+      <c r="E68">
+        <v>-0.04227190366374076</v>
+      </c>
+      <c r="F68">
+        <v>-0.02285118381858641</v>
+      </c>
+      <c r="G68">
+        <v>-0.002398449605996805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08538944065898366</v>
+        <v>0.08705929264191506</v>
       </c>
       <c r="C69">
-        <v>0.06576538316016259</v>
+        <v>-0.0798201774842569</v>
       </c>
       <c r="D69">
-        <v>-0.03248719730816332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01349730190419907</v>
+      </c>
+      <c r="E69">
+        <v>-0.01550267789099819</v>
+      </c>
+      <c r="F69">
+        <v>-0.09789132529702323</v>
+      </c>
+      <c r="G69">
+        <v>0.002609277767684395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1230854309382933</v>
+        <v>0.1390564216175076</v>
       </c>
       <c r="C71">
-        <v>-0.2398998790070858</v>
+        <v>0.2377040148780483</v>
       </c>
       <c r="D71">
-        <v>0.02776459525873357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02153731971416361</v>
+      </c>
+      <c r="E71">
+        <v>-0.04283811997963531</v>
+      </c>
+      <c r="F71">
+        <v>-0.06787944315946337</v>
+      </c>
+      <c r="G71">
+        <v>0.01614437164138353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07843491457464168</v>
+        <v>0.08876765147656983</v>
       </c>
       <c r="C72">
-        <v>0.05712080435638538</v>
+        <v>-0.05693065666381229</v>
       </c>
       <c r="D72">
-        <v>-0.04582288802364016</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005815504823473321</v>
+      </c>
+      <c r="E72">
+        <v>0.02210761091052239</v>
+      </c>
+      <c r="F72">
+        <v>-0.0800341720131809</v>
+      </c>
+      <c r="G72">
+        <v>0.00834126380546896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4400563169216714</v>
+        <v>0.3581974987458823</v>
       </c>
       <c r="C73">
-        <v>0.08596537664492286</v>
+        <v>-0.07413758887374984</v>
       </c>
       <c r="D73">
-        <v>0.006148949809530734</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3290101223310296</v>
+      </c>
+      <c r="E73">
+        <v>0.5262798988371956</v>
+      </c>
+      <c r="F73">
+        <v>0.3123911548058063</v>
+      </c>
+      <c r="G73">
+        <v>0.164981651664815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1168151065871548</v>
+        <v>0.1112457161064446</v>
       </c>
       <c r="C74">
-        <v>0.114946855800848</v>
+        <v>-0.1043571776764143</v>
       </c>
       <c r="D74">
-        <v>-0.02231916259754752</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0167084336799936</v>
+      </c>
+      <c r="E74">
+        <v>-0.06307815391635596</v>
+      </c>
+      <c r="F74">
+        <v>-0.07804202413147651</v>
+      </c>
+      <c r="G74">
+        <v>0.05414906222396113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2635855112539682</v>
+        <v>0.2577408376215845</v>
       </c>
       <c r="C75">
-        <v>0.12016656241899</v>
+        <v>-0.1352853184732492</v>
       </c>
       <c r="D75">
-        <v>-0.03332338645127168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1048486088572799</v>
+      </c>
+      <c r="E75">
+        <v>-0.1218338961393694</v>
+      </c>
+      <c r="F75">
+        <v>-0.02868628891697868</v>
+      </c>
+      <c r="G75">
+        <v>0.05996733101661796</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1175599463415854</v>
+        <v>0.1295007413352589</v>
       </c>
       <c r="C76">
-        <v>0.1010023224986159</v>
+        <v>-0.1026733699131718</v>
       </c>
       <c r="D76">
-        <v>-0.0291455656736587</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04702864969646606</v>
+      </c>
+      <c r="E76">
+        <v>-0.08335042415005968</v>
+      </c>
+      <c r="F76">
+        <v>-0.08092705203342478</v>
+      </c>
+      <c r="G76">
+        <v>0.04350607586009618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07038377256643456</v>
+        <v>0.06710843645132404</v>
       </c>
       <c r="C77">
-        <v>0.0573932176939571</v>
+        <v>-0.06190451452284614</v>
       </c>
       <c r="D77">
-        <v>0.02798924460835101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05798451311676719</v>
+      </c>
+      <c r="E77">
+        <v>-0.0384816336015013</v>
+      </c>
+      <c r="F77">
+        <v>-0.09842565075564112</v>
+      </c>
+      <c r="G77">
+        <v>-0.1462944974532657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04423505514825987</v>
+        <v>0.04310892967181746</v>
       </c>
       <c r="C78">
-        <v>0.04799187806814929</v>
+        <v>-0.05436559860069608</v>
       </c>
       <c r="D78">
-        <v>0.004919647732299033</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05852687000972215</v>
+      </c>
+      <c r="E78">
+        <v>0.01896240795763396</v>
+      </c>
+      <c r="F78">
+        <v>-0.09695482508584838</v>
+      </c>
+      <c r="G78">
+        <v>-0.01277726929868927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.001979276445340817</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02292254342453706</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01501044523104509</v>
+      </c>
+      <c r="E79">
+        <v>-0.02765893786980034</v>
+      </c>
+      <c r="F79">
+        <v>-0.03714590795450012</v>
+      </c>
+      <c r="G79">
+        <v>0.03564086014050805</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0499691880294218</v>
+        <v>0.03988003569876489</v>
       </c>
       <c r="C80">
-        <v>0.05633643852717424</v>
+        <v>-0.04717921065355325</v>
       </c>
       <c r="D80">
-        <v>0.01737560959855435</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04483642634480564</v>
+      </c>
+      <c r="E80">
+        <v>-0.0001674565457999528</v>
+      </c>
+      <c r="F80">
+        <v>-0.03440107451286405</v>
+      </c>
+      <c r="G80">
+        <v>-0.04834247536961309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1390908011125861</v>
+        <v>0.1415065282542914</v>
       </c>
       <c r="C81">
-        <v>0.07892749098514072</v>
+        <v>-0.09136815617253502</v>
       </c>
       <c r="D81">
-        <v>-0.02709422561928118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07584192352721253</v>
+      </c>
+      <c r="E81">
+        <v>-0.09940322333596882</v>
+      </c>
+      <c r="F81">
+        <v>-0.04021507935762986</v>
+      </c>
+      <c r="G81">
+        <v>0.04722060316727693</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06574814514736192</v>
+        <v>0.1839849403400909</v>
       </c>
       <c r="C82">
-        <v>0.04081074482431334</v>
+        <v>-0.1297426242349499</v>
       </c>
       <c r="D82">
-        <v>-0.01899362229614406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2074296448703449</v>
+      </c>
+      <c r="E82">
+        <v>-0.05314012810735839</v>
+      </c>
+      <c r="F82">
+        <v>-0.04277992017141755</v>
+      </c>
+      <c r="G82">
+        <v>0.005189881253508042</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02856085949146243</v>
+        <v>0.03005122937887523</v>
       </c>
       <c r="C83">
-        <v>0.02017485132411008</v>
+        <v>-0.03322748726398687</v>
       </c>
       <c r="D83">
-        <v>0.01412911485690967</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03242622838346521</v>
+      </c>
+      <c r="E83">
+        <v>0.006288523140262787</v>
+      </c>
+      <c r="F83">
+        <v>-0.05548097119707923</v>
+      </c>
+      <c r="G83">
+        <v>-0.03188407268537454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2417337153539771</v>
+        <v>0.2116194663809813</v>
       </c>
       <c r="C85">
-        <v>0.12040479521526</v>
+        <v>-0.1225868794006355</v>
       </c>
       <c r="D85">
-        <v>-0.1051685168490502</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1066341958385348</v>
+      </c>
+      <c r="E85">
+        <v>-0.04488926493001754</v>
+      </c>
+      <c r="F85">
+        <v>0.008012733780579272</v>
+      </c>
+      <c r="G85">
+        <v>0.108183135747122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.013770068289265</v>
+        <v>0.01525844995967171</v>
       </c>
       <c r="C86">
-        <v>0.02540366058781675</v>
+        <v>-0.02719169481418567</v>
       </c>
       <c r="D86">
-        <v>0.008390919543622149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07390791228540698</v>
+      </c>
+      <c r="E86">
+        <v>0.001069643028970797</v>
+      </c>
+      <c r="F86">
+        <v>-0.1606717117124344</v>
+      </c>
+      <c r="G86">
+        <v>-0.03482574660381819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01466241498111757</v>
+        <v>0.02143845508076952</v>
       </c>
       <c r="C87">
-        <v>0.02451616473303378</v>
+        <v>-0.01713974397112618</v>
       </c>
       <c r="D87">
-        <v>0.07386465310169443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09583435268927601</v>
+      </c>
+      <c r="E87">
+        <v>-0.04487612112171455</v>
+      </c>
+      <c r="F87">
+        <v>-0.1097719681257058</v>
+      </c>
+      <c r="G87">
+        <v>-0.05226077926250736</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1023039928690362</v>
+        <v>0.09042554206459004</v>
       </c>
       <c r="C88">
-        <v>0.06795009507165159</v>
+        <v>-0.06113010502021474</v>
       </c>
       <c r="D88">
-        <v>-0.01512429284343528</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008401382483292934</v>
+      </c>
+      <c r="E88">
+        <v>-0.01197002815800473</v>
+      </c>
+      <c r="F88">
+        <v>-0.0828079428712802</v>
+      </c>
+      <c r="G88">
+        <v>-0.03727024478615737</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.195963077301587</v>
+        <v>0.2111103716580899</v>
       </c>
       <c r="C89">
-        <v>-0.3722326927814902</v>
+        <v>0.3716966982606789</v>
       </c>
       <c r="D89">
-        <v>-0.01737854452910035</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01654508779405774</v>
+      </c>
+      <c r="E89">
+        <v>-0.009385749842548809</v>
+      </c>
+      <c r="F89">
+        <v>-0.07550582259277416</v>
+      </c>
+      <c r="G89">
+        <v>-0.0925824808129574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1793457718654199</v>
+        <v>0.1989376179625861</v>
       </c>
       <c r="C90">
-        <v>-0.3486949165429784</v>
+        <v>0.3222914683995335</v>
       </c>
       <c r="D90">
-        <v>0.02321123168487928</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01313458805836193</v>
+      </c>
+      <c r="E90">
+        <v>-0.05343506250560057</v>
+      </c>
+      <c r="F90">
+        <v>-0.05264774072146709</v>
+      </c>
+      <c r="G90">
+        <v>-0.029409242403317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2022910917904902</v>
+        <v>0.1928162510220309</v>
       </c>
       <c r="C91">
-        <v>0.1075485994859186</v>
+        <v>-0.1312800372406137</v>
       </c>
       <c r="D91">
-        <v>-0.03766360539416339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08801622925962242</v>
+      </c>
+      <c r="E91">
+        <v>-0.09923998179933879</v>
+      </c>
+      <c r="F91">
+        <v>-0.05590466748916403</v>
+      </c>
+      <c r="G91">
+        <v>0.04550849533339588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.175110301756347</v>
+        <v>0.1806143243015626</v>
       </c>
       <c r="C92">
-        <v>-0.2768984486249199</v>
+        <v>0.2782035007212609</v>
       </c>
       <c r="D92">
-        <v>0.01545798435989949</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005309130622432308</v>
+      </c>
+      <c r="E92">
+        <v>-0.07604777107577501</v>
+      </c>
+      <c r="F92">
+        <v>-0.07402964519612629</v>
+      </c>
+      <c r="G92">
+        <v>-0.02862533885751467</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1914304914995847</v>
+        <v>0.2187193247645254</v>
       </c>
       <c r="C93">
-        <v>-0.328338045452483</v>
+        <v>0.3202770271123692</v>
       </c>
       <c r="D93">
-        <v>0.01996213824137309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004253842700845493</v>
+      </c>
+      <c r="E93">
+        <v>-0.03648209225828086</v>
+      </c>
+      <c r="F93">
+        <v>-0.05863180513432222</v>
+      </c>
+      <c r="G93">
+        <v>0.01225288512349192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2745166148633311</v>
+        <v>0.3397972526253361</v>
       </c>
       <c r="C94">
-        <v>0.1396933101530519</v>
+        <v>-0.1819323357816228</v>
       </c>
       <c r="D94">
-        <v>-0.06633842188225023</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4154530387657038</v>
+      </c>
+      <c r="E94">
+        <v>-0.3017281508953283</v>
+      </c>
+      <c r="F94">
+        <v>0.4482482417654616</v>
+      </c>
+      <c r="G94">
+        <v>-0.2011406612197883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08494764198591709</v>
+        <v>0.08039731547684735</v>
       </c>
       <c r="C95">
-        <v>0.087756117115548</v>
+        <v>-0.08642259481011665</v>
       </c>
       <c r="D95">
-        <v>0.05565162610977441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1404634103065041</v>
+      </c>
+      <c r="E95">
+        <v>0.1489147242294017</v>
+      </c>
+      <c r="F95">
+        <v>0.001494571048942183</v>
+      </c>
+      <c r="G95">
+        <v>-0.9070752745150247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2103963261777058</v>
+        <v>0.1942525674624814</v>
       </c>
       <c r="C98">
-        <v>0.0362201273574808</v>
+        <v>-0.04156468738290348</v>
       </c>
       <c r="D98">
-        <v>0.0246379616113196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1423592227325626</v>
+      </c>
+      <c r="E98">
+        <v>0.1819974723125626</v>
+      </c>
+      <c r="F98">
+        <v>0.04255116296556898</v>
+      </c>
+      <c r="G98">
+        <v>0.1032182951592526</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01083852285202639</v>
+        <v>0.008871961227917653</v>
       </c>
       <c r="C101">
-        <v>0.02223137858395529</v>
+        <v>-0.02273753784660717</v>
       </c>
       <c r="D101">
-        <v>-0.01100198949395679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01334753365475784</v>
+      </c>
+      <c r="E101">
+        <v>-0.01197551801968699</v>
+      </c>
+      <c r="F101">
+        <v>-0.09924512697440932</v>
+      </c>
+      <c r="G101">
+        <v>-0.003997889592849919</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1246345809570499</v>
+        <v>0.1254169259713933</v>
       </c>
       <c r="C102">
-        <v>0.07335716356858804</v>
+        <v>-0.09606839518248775</v>
       </c>
       <c r="D102">
-        <v>-0.03031146480523471</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04717844524579484</v>
+      </c>
+      <c r="E102">
+        <v>-0.01340699835398047</v>
+      </c>
+      <c r="F102">
+        <v>-0.02837797636695551</v>
+      </c>
+      <c r="G102">
+        <v>0.01240989704197657</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
